--- a/DATA_1.xlsx
+++ b/DATA_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Tarun\Website wala Project\main\data-scrapping-python-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD6A8DFD-EFE1-4953-8B39-6B37501BB4A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06984B9-3770-49A9-9091-9E587B689AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5E63F44-FC91-493A-AD79-C89DC9E7FA45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{F5E63F44-FC91-493A-AD79-C89DC9E7FA45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,77 +489,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DD045-111D-44E1-921D-6425346AEBE4}">
-  <dimension ref="A3:N15"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="8" max="8" width="16.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="13" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -571,40 +603,8 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F15" s="3" t="s">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
     </row>

--- a/DATA_1.xlsx
+++ b/DATA_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Tarun\Website wala Project\main\data-scrapping-python-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06984B9-3770-49A9-9091-9E587B689AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F277EF77-7E5C-4932-A378-D0403C7E25BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{F5E63F44-FC91-493A-AD79-C89DC9E7FA45}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>INSTITUTE NAME </t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>BRANCH DETAILS</t>
   </si>
   <si>
     <t>S. No.</t>
@@ -76,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,26 +82,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF666666"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Garamond"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,18 +96,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,32 +124,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -489,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DD045-111D-44E1-921D-6425346AEBE4}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -511,101 +472,48 @@
     <col min="13" max="13" width="14.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_1.xlsx
+++ b/DATA_1.xlsx
@@ -8,53 +8,48 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Tarun\Website wala Project\main\data-scrapping-python-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F277EF77-7E5C-4932-A378-D0403C7E25BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8BCD0-5998-47AD-A4EB-BC66DB241BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{F5E63F44-FC91-493A-AD79-C89DC9E7FA45}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>INSTITUTE CODE</t>
+  </si>
   <si>
     <t>INSTITUTE NAME </t>
   </si>
   <si>
+    <t>MOBILE </t>
+  </si>
+  <si>
+    <t>ALTERNATIVE MOBILE NUMBER</t>
+  </si>
+  <si>
+    <t>EMAIL-ID</t>
+  </si>
+  <si>
+    <t>WEBSITE</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
     <t>DISTRICT </t>
   </si>
   <si>
-    <t>EMAIL-ID</t>
-  </si>
-  <si>
-    <t>ALTERNATIVE MOBILE NUMBER</t>
-  </si>
-  <si>
-    <t>MOBILE </t>
-  </si>
-  <si>
-    <t>INSTITUTE CODE</t>
-  </si>
-  <si>
     <t>PINCODE </t>
-  </si>
-  <si>
-    <t>WEBSITE</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>S. No.</t>
   </si>
   <si>
     <t>BRANCH CODE</t>
@@ -82,6 +77,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <name val="Garamond"/>
       <family val="1"/>
@@ -449,62 +445,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63DD045-111D-44E1-921D-6425346AEBE4}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="5" width="28.08984375" customWidth="1"/>
-    <col min="6" max="6" width="26.81640625" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" customWidth="1"/>
-    <col min="9" max="9" width="14.08984375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
+    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -514,9 +512,45 @@
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/DATA_1.xlsx
+++ b/DATA_1.xlsx
@@ -1,91 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Tarun\Website wala Project\main\data-scrapping-python-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8BCD0-5998-47AD-A4EB-BC66DB241BFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>S. No.</t>
-  </si>
-  <si>
-    <t>INSTITUTE CODE</t>
-  </si>
-  <si>
-    <t>INSTITUTE NAME </t>
-  </si>
-  <si>
-    <t>MOBILE </t>
-  </si>
-  <si>
-    <t>ALTERNATIVE MOBILE NUMBER</t>
-  </si>
-  <si>
-    <t>EMAIL-ID</t>
-  </si>
-  <si>
-    <t>WEBSITE</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>DISTRICT </t>
-  </si>
-  <si>
-    <t>PINCODE </t>
-  </si>
-  <si>
-    <t>BRANCH CODE</t>
-  </si>
-  <si>
-    <t>BRANCH NAME</t>
-  </si>
-  <si>
-    <t>TOTAL SEATS</t>
-  </si>
-  <si>
-    <t>INSTITUTE TYPE</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
       <name val="Garamond"/>
       <family val="1"/>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,27 +73,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,108 +452,2121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" bestFit="1" customWidth="1"/>
+    <col width="6.54296875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20.54296875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="43.1796875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.81640625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="37.7265625" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="19.453125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="19.08984375" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="42.1796875" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="13.26953125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="11.90625" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="6.54296875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="17.6328125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="52.08984375" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="8.453125" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="13.453125" bestFit="1" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
+    <row r="1" ht="31" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>S. No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>INSTITUTE CODE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">INSTITUTE NAME </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MOBILE </t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE MOBILE NUMBER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>EMAIL-ID</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>WEBSITE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ADDRESS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DISTRICT </t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PINCODE </t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>S. No.</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BRANCH CODE</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>BRANCH NAME</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TOTAL SEATS</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>INSTITUTE TYPE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MORADABAD EDUCATIONAL TRUST GROUP OF INSTITUTIONS FACULTY OF PHARMACY , MORADABAD</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9412391802</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>8328908142</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>METPHARMACYMORADABAD@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>www.metfop.edu.in</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>MIT CAMPUS, RAM GANGA VIHAR PHASE-2, MORADABAD</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Moradabad</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>244001</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>R.B. COLLEGE OF PHARMACY, N.H.-2. VILL- SATAULI, ETMADPUR,  AGRA- 283202.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9557893081</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9568005053</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>rbcp.agra@gmail.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>WWW.RBCP.IN</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>NH 2 NEAR RAILWAY OVER BRIDGE ETMADPUR</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Agra</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>283202</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,JANSATH, MUZAFFAR NAGAR</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8218511276</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9810558498</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>gpjansath@gmail.com</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>WWW.GPJANSATH.IN</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>GOVERNMENT POLYTECHNIC JATWADA JANSATH</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>251314</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,JANSATH, MUZAFFAR NAGAR</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8218511276</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>9810558498</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>gpjansath@gmail.com</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>WWW.GPJANSATH.IN</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>GOVERNMENT POLYTECHNIC JATWADA JANSATH</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>251314</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>ELECTRONICS ENGINEERING</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,JANSATH, MUZAFFAR NAGAR</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8218511276</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9810558498</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>gpjansath@gmail.com</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>WWW.GPJANSATH.IN</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>GOVERNMENT POLYTECHNIC JATWADA JANSATH</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>251314</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>MECHANICAL ENGINEERING (PRODUCTION)</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,JANSATH, MUZAFFAR NAGAR</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8218511276</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>9810558498</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>gpjansath@gmail.com</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>WWW.GPJANSATH.IN</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>GOVERNMENT POLYTECHNIC JATWADA JANSATH</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>251314</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING  [LATERAL ENTRY]</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,JANSATH, MUZAFFAR NAGAR</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8218511276</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9810558498</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>gpjansath@gmail.com</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>WWW.GPJANSATH.IN</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>GOVERNMENT POLYTECHNIC JATWADA JANSATH</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>251314</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>ELECTRONICS ENGINEERING [LATERAL ENTRY]</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,JANSATH, MUZAFFAR NAGAR</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8218511276</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>9810558498</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>gpjansath@gmail.com</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>WWW.GPJANSATH.IN</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>GOVERNMENT POLYTECHNIC JATWADA JANSATH</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>251314</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>MECHANICAL ENGINEERING (PRODUCTION)(LATERAL ENTRY)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,KUTANA, BARAUT, BAGHPAT</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7599388814</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>9808705655</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>gpkotana@gmail.com</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>www.gpkotana.in</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Village- Kotana, Tehsil- Baraut</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bagpat</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>250611</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,KUTANA, BARAUT, BAGHPAT</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7599388814</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>9808705655</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>gpkotana@gmail.com</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>www.gpkotana.in</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Village- Kotana, Tehsil- Baraut</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Bagpat</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>250611</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>DAIRY ENGINEERING</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,KUTANA, BARAUT, BAGHPAT</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7599388814</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9808705655</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>gpkotana@gmail.com</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>www.gpkotana.in</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Village- Kotana, Tehsil- Baraut</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bagpat</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>250611</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>MECHANICAL ENGINEERING (AUTOMOBILE)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,KUTANA, BARAUT, BAGHPAT</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7599388814</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9808705655</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>gpkotana@gmail.com</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>www.gpkotana.in</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Village- Kotana, Tehsil- Baraut</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bagpat</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>250611</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING  [LATERAL ENTRY]</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GOVT. POLYTECHNIC,KUTANA, BARAUT, BAGHPAT</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7599388814</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9808705655</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gpkotana@gmail.com</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>www.gpkotana.in</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Village- Kotana, Tehsil- Baraut</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Bagpat</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>250611</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>MECHANICAL ENGINEERING (AUTOMOBILE)(LATERAL ENTRY)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>I.T.M. COLLEGE OF PHARMACY, ALIGARH</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7351300098</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>7351300099</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>ITMALIGARHPHARMACY@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>WWW.ITMCOLLEGEOFPHARMACY.ORG</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>I.T.M COLLEGE OF PHARMACY ALIGARH PALWAL DELHI ROAD KARSUA ALIGARH</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Aligarh</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>202140</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>GOVT. GIRLS POLYTECHNIC, ARNIYA,BULANDSHAHAR</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9450900897</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>8392929294</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>//ggparnia.comEMAILID</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GOVERNMENT GIRLS POLYTECHNIC ARNIA, BULANDSHAHR(RU</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Bulandshahar</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>203131</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>GOVT. GIRLS POLYTECHNIC, ARNIYA,BULANDSHAHAR</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9450900897</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8392929294</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>//ggparnia.comEMAILID</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>GOVERNMENT GIRLS POLYTECHNIC ARNIA, BULANDSHAHR(RU</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Bulandshahar</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>203131</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>ELECTRICAL ENGINEERING</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GOVT. GIRLS POLYTECHNIC, ARNIYA,BULANDSHAHAR</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9450900897</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8392929294</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>//ggparnia.comEMAILID</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>GOVERNMENT GIRLS POLYTECHNIC ARNIA, BULANDSHAHR(RU</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Bulandshahar</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>203131</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>MECHANICAL ENGINEERING (PRODUCTION)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>GOVT. GIRLS POLYTECHNIC, ARNIYA,BULANDSHAHAR</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9450900897</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>8392929294</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>//ggparnia.comEMAILID</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>GOVERNMENT GIRLS POLYTECHNIC ARNIA, BULANDSHAHR(RU</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Bulandshahar</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>203131</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING  [LATERAL ENTRY]</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>GOVT. GIRLS POLYTECHNIC, ARNIYA,BULANDSHAHAR</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9450900897</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8392929294</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>//ggparnia.comEMAILID</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>GOVERNMENT GIRLS POLYTECHNIC ARNIA, BULANDSHAHR(RU</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Bulandshahar</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>203131</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>ELECTRICAL ENGINEERING [LATERAL ENTRY]</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GOVT. GIRLS POLYTECHNIC, ARNIYA,BULANDSHAHAR</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9450900897</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>8392929294</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>//ggparnia.comEMAILID</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>http</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>GOVERNMENT GIRLS POLYTECHNIC ARNIA, BULANDSHAHR(RU</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bulandshahar</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>203131</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>MECHANICAL ENGINEERING (PRODUCTION)(LATERAL ENTRY)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>SHRI RAM  COLLEGE OF PHARMACY PARIKRAMA MARG MUZAFFARNAGAR-251001</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9919966070</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>8077494402</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>//WWW.SRGCMZN.COM/SRCP.ASPXEMAILID</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>HTTP</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PARIKRAMA MARG MUZAFFARNAGAR</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>251001</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SHRI RAM GROUP OF COLLEGES,OPP.ALMASPUR TELEPHONE EXCHANGE,PARIKRAMA MARG,MUZAFFARNAGAR-251001</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8077494402</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>9919966070</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>//WWW.SRGCMZN.COM/EMAILID</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>HTTP</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PARIKRAMA MARG, MUZAFFARNAGAR</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Muzaffarnagar</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>251001</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>GMS COLLEGE OF PHARMACY NH-24 SHAKARPUR,RAJABPUR,AMROHA-244236</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9997515697</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>9997515697</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>GMS.EDU.SOCIETY@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>GMSCP.IN</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NH-24,SHAKARPUR,RAJABPUR,AMROHA</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Amroha</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>244236</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RUKMANI COLLEGE OF PHARMACY LODHIPUR RAJPOOT PAKBADA MORADABAD-244102</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9568200500</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7037017777</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SIDDHARTH.MALIK881@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>RKCPH.COM</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>LODHIPUR RAJPOOT PAKBADA MORADABAD</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Moradabad</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>244102</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>R V INSTITUTE OF PHARMACY, 9TH KM MILESTONE, BIJNOR-MORADABAD ROAD, BIJNOR-246728</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9719278601</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>9917562680</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>rvipharmacy@gmail.com</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>www.rvip.ac.in</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>9TH KM MILESTONE BIJNOR MORADABAD ROAD BIJNOR</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Bijnor</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>246728</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MAYA INSTITUTE OF PHARMACY,MANDU ROAD SHOKHNA HATHRAS-204101</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9411662879</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>8077051773</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>mayainstitution@gmail.com</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>www.mayainstitutes.com</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>MENDU ROAD, SOKHNA, HATHRAS</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Hathras</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>204101</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1014</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MAA GAYATRI INSTITUTE OF PHARMACY,CHANDOSH, ALIGARH-202132</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9720086554</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>9760060019</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>GAYATRISMARAK12@GMAIL.COM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>INFO@MAAGAYATRIINSTITUTEOFPHARMACY.COM</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>VILL+POST- CHANDAUS</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Aligarh</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>202132</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ALIGARH COLLEGE OF PHARMACY, ALIGARH</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9927727700</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>9568200064</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>//WWW.ALIGARHPHARMACY.COM/EMAILID</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>HTTP</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>3 K.M. FROM SASNI GATE ON MATHURA BYPASS ROAD, ALIGARH - 202001, (U.P.)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Aligarh</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>202001</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1018</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>I.T.S COLLEGE OF PHARMACY DELHI-MEERUT ROAD,MURAD NAGAR GHAZIABAD GHAZIABAD-201206</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8447753530</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>8447753526</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>//PHARMACY.ITS.EDU.IN/EMAILID</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>HTTPS</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>DELHI MEERUT ROAD MURAD NAGAR GHAZIABAD</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Ghaziabad</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>201206</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1019</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>D.J.COLLEGE OF PHARMACY, YAKOOTPUR MAVI, NIWARI ROAD, MODINAGAR,GHAZIABAD-201204</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9012406375</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>9368564768</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>djpharm.college@gmail.com</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>WWW.DJPHARMACY.ORG</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AJIT MAHAL, NIWARI ROAD, MODINAGAR, GHAZIABAD</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Ghaziabad</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>201204</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>DIPLOMA IN PHARMACY</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
     </row>
   </sheetData>
